--- a/data_public/IndicatorDist_table_sorted.xlsx
+++ b/data_public/IndicatorDist_table_sorted.xlsx
@@ -31,7 +31,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Scale</t>
+    <t>Normalization</t>
   </si>
   <si>
     <t>Source</t>

--- a/data_public/IndicatorDist_table_sorted.xlsx
+++ b/data_public/IndicatorDist_table_sorted.xlsx
@@ -124,7 +124,7 @@
     <t>Socio-economic</t>
   </si>
   <si>
-    <t>Percent weak population (age below 5 and above 65 years)</t>
+    <t>Percent weak population (age below 5 or above 65 years)</t>
   </si>
   <si>
     <t>Percent population with disability</t>
@@ -187,7 +187,7 @@
     <t>MinMax</t>
   </si>
   <si>
-    <t>Quantile</t>
+    <t>Power</t>
   </si>
   <si>
     <t>INEI (2017)</t>
